--- a/biology/Botanique/Barbeuiaceae/Barbeuiaceae.xlsx
+++ b/biology/Botanique/Barbeuiaceae/Barbeuiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La petite famille des Barbeuiaceae regroupe des plantes dicotylédones ; elle est créée pour une seule espèce de liane endémique de Madagascar (Barbeuia madagascariensis). La singularité du genre Barbeuia dans les Caryophyllales a été établie sur la base de caractères moléculaires [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La petite famille des Barbeuiaceae regroupe des plantes dicotylédones ; elle est créée pour une seule espèce de liane endémique de Madagascar (Barbeuia madagascariensis). La singularité du genre Barbeuia dans les Caryophyllales a été établie sur la base de caractères moléculaires .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nom vient du genre type Barbeuia nommé en hommage au médecin, botaniste, auteur, traducteur et éditeur français Jacques Barbeu Dubourg (1709–1779), ami et traducteur de l'œuvre de Benjamin Franklin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nom vient du genre type Barbeuia nommé en hommage au médecin, botaniste, auteur, traducteur et éditeur français Jacques Barbeu Dubourg (1709–1779), ami et traducteur de l'œuvre de Benjamin Franklin.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[3], Angiosperm Phylogeny Website                        (21 mai 2010)[4], NCBI  (30 avr. 2010)[5] et DELTA Angio           (30 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (30 avr. 2010) et DELTA Angio           (30 avr. 2010) :
 genre Barbeuia  Thouars (1806)</t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010)[3], Angiosperm Phylogeny Website                        (21 mai 2010)[4] et NCBI  (30 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010) et NCBI  (30 avr. 2010) :
 genre Barbeuia  Thouars (1806)
 Barbeuia madagascariensis  Steud., Nomencl. Bot., ed. 2 (1840)</t>
         </is>
